--- a/src/table.xlsx
+++ b/src/table.xlsx
@@ -691,19 +691,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>647869267</v>
+        <v>786635160</v>
       </c>
       <c r="B2" t="n">
-        <v>1000065632</v>
+        <v>1000025567</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Antonella</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Duran Calderon</t>
+          <t>Bonilla Martinez</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -712,34 +712,34 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AntonellaDuran301@yahoo.com</t>
+          <t>Alma.BonillaE@hotmail.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Estudiante</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Antonella.Duran@escuelaing.edu.co</t>
+          <t>Alma.Bonilla@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3514380024</v>
+        <v>3127723492</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Zipaquira</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>cll 10g Bis #10c-147</t>
+          <t>trans 159Bis #185a-40</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -748,85 +748,77 @@
         </is>
       </c>
       <c r="N2" s="2" t="n">
-        <v>35775</v>
+        <v>36018</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Luis Duran</t>
+          <t>Cesar Bonilla</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3515908405</v>
+        <v>3008200377</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Lnp@gmail.com</t>
+          <t>C.an@hotmail.com</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Matematicas</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>MATE</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>MATE356</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>MATR</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Pregrado</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5000000</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>2001</v>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>2023</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4.5</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Generacion E</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -836,12 +828,12 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>PAP</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -849,25 +841,17 @@
           <t>Comfandi</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="AJ2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>62.90000000000001</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>12</v>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
@@ -876,68 +860,60 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Ninguna</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Yodo</t>
+        </is>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1000065632</v>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1000025567</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2028</v>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Casado</t>
+          <t>Soltero</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>936076572</v>
+        <v>751801773</v>
       </c>
       <c r="B3" t="n">
-        <v>2167711</v>
+        <v>2168960</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mesa Puerta</t>
+          <t>Beltran Duque</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -946,11 +922,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DanielMesa375@hotmail.com</t>
+          <t>JuanBeltran578@outlook.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -960,11 +936,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Daniel.Mesa@mail.escuelaing.edu.co</t>
+          <t>Juan.Beltran@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3189959666</v>
+        <v>3116682490</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -973,43 +949,43 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>trans 4Bis #15a Bis-68</t>
+          <t>dg 27f Bis #89Bis-29</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>AB-</t>
+          <t>O+</t>
         </is>
       </c>
       <c r="N3" s="2" t="n">
-        <v>37632</v>
+        <v>38199</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Gustavo Mesa</t>
+          <t>Emmanuel Beltran</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3186667933</v>
+        <v>3143207421</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Ga513@yahoo.com</t>
+          <t>En432@gmail.com</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Ingieneria Electronica</t>
+          <t>Ingieneria Electrica</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>IELC</t>
+          <t>IELE</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>IELC351</t>
+          <t>IELE353</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1023,88 +999,88 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>7315568</v>
+        <v>9645709</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
         <v>2019</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Fondo solidario</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>PAP</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Colsubsidio</t>
+          <t>Comfandi</t>
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AK3" t="n">
-        <v>142.8</v>
+        <v>42.38</v>
       </c>
       <c r="AL3" t="n">
-        <v>25.20000000000002</v>
+        <v>120.62</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Yodo</t>
+          <t>Ninguna</t>
         </is>
       </c>
       <c r="AP3" t="n">
+        <v>9645709</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2162193</v>
+      </c>
+      <c r="AR3" t="n">
         <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>2163007</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>2</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -1119,48 +1095,48 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Soltero</t>
+          <t>Casado</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>650968430</v>
+        <v>415095093</v>
       </c>
       <c r="B4" t="n">
-        <v>2166440</v>
+        <v>2167064</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Restrepo Chamorro</t>
+          <t>Rivas Henao</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AnaRestrepo378@gmail.com</t>
+          <t>David.RivasR@gmail.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1170,56 +1146,56 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ana.Restrepo@mail.escuelaing.edu.co</t>
+          <t>David.Rivas@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3186643477</v>
+        <v>3059723869</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sopo</t>
+          <t>Cajica</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>trans 16c Bis #19a Bis-51</t>
+          <t>dg 114a #163a Bis-119</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>O+</t>
         </is>
       </c>
       <c r="N4" s="2" t="n">
-        <v>38595</v>
+        <v>37067</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>José Restrepo</t>
+          <t>María Rivas</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3103012913</v>
+        <v>3216116325</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>J.od@hotmail.com</t>
+          <t>MsJ@yahoo.com</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Ingieneria Industrial</t>
+          <t>Matematicas</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>IIND</t>
+          <t>MATE</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>IIND349</t>
+          <t>MATE359</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1233,26 +1209,26 @@
         </is>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>5000000</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
         <v>2018</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1267,7 +1243,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1282,39 +1258,39 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Colsubsidio</t>
+          <t>Medimas</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>170</v>
       </c>
       <c r="AK4" t="n">
-        <v>91.8</v>
+        <v>47.6</v>
       </c>
       <c r="AL4" t="n">
-        <v>78.2</v>
+        <v>122.4</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Anticonvulsivos</t>
+          <t>Opioides</t>
         </is>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2162609</v>
+        <v>2161679</v>
       </c>
       <c r="AR4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -1324,7 +1300,7 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
@@ -1345,19 +1321,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>594491152</v>
+        <v>221211062</v>
       </c>
       <c r="B5" t="n">
-        <v>1000062048</v>
+        <v>1000029164</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Santino</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Perea Cano</t>
+          <t>Vallejo Chavez</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1366,11 +1342,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>JustinPerea819@gmail.com</t>
+          <t>Santino.VallejoW@hotmail.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1380,11 +1356,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Justin.Perea@mail.escuelaing.edu.co</t>
+          <t>Santino.Vallejo@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3171476589</v>
+        <v>3006075556</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1393,76 +1369,78 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>dg 12e Bis #11a-55</t>
+          <t>trans 62e #169Bis-171</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>O-</t>
         </is>
       </c>
       <c r="N5" s="2" t="n">
-        <v>38410</v>
+        <v>36429</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Daniel Perea</t>
+          <t>Antonella Chavez</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3219980239</v>
+        <v>3002264504</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Da953@outlook.com</t>
+          <t>A.zb@yahoo.com</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Ingieneria Civil</t>
+          <t>Ingieneria Industrial</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>ICIV</t>
+          <t>IIND</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>ICIV350</t>
+          <t>IIND349</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>MATR</t>
+          <t>ACTV</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Pregrado</t>
-        </is>
-      </c>
-      <c r="W5" t="n">
-        <v>4</v>
+          <t>Especialización</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="X5" t="n">
         <v>5000000</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1472,7 +1450,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>ICETEX</t>
+          <t>Pilo paga</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1482,7 +1460,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1492,59 +1470,63 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Compensar</t>
+          <t>Comfenalco</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>170</v>
       </c>
-      <c r="AK5" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>96.90000000000001</v>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Sulfamidas</t>
+          <t>Ninguna</t>
         </is>
       </c>
       <c r="AP5" t="n">
-        <v>5000000</v>
+        <v>7500000</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1000062048</v>
+        <v>1000029164</v>
       </c>
       <c r="AR5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Casado</t>
+          <t>Soltero</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
@@ -1555,32 +1537,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>663259125</v>
+        <v>497372823</v>
       </c>
       <c r="B6" t="n">
-        <v>1000028476</v>
+        <v>1000078783</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>María</t>
+          <t>Maykel</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Baron Cabrera</t>
+          <t>Vergara Montoya</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MaríaBaron521@gmail.com</t>
+          <t>MaykelVergara567@outlook.com</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1590,11 +1572,11 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>María.Baron@mail.escuelaing.edu.co</t>
+          <t>Maykel.Vergara@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3153536881</v>
+        <v>3012586875</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1603,7 +1585,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>dg 20e #2a Bis-43</t>
+          <t>dg 97b #19 -196</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1612,19 +1594,19 @@
         </is>
       </c>
       <c r="N6" s="2" t="n">
-        <v>36108</v>
+        <v>36396</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Isabella Cabrera</t>
+          <t>Yamileth Montoya</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3056605371</v>
+        <v>3011153928</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>I.ah@yahoo.com</t>
+          <t>Y.ah@yahoo.com</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1639,50 +1621,52 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>ISIS350</t>
+          <t>ISIS349</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>ACTV</t>
+          <t>PLNC</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Pregrado</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
+          <t>Maestria</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>7010748</v>
+      </c>
+      <c r="Y6" t="n">
         <v>5</v>
       </c>
-      <c r="X6" t="n">
-        <v>7251629</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>6</v>
-      </c>
       <c r="Z6" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ICETEX</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1692,64 +1676,68 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Nueva EPS</t>
+          <t>Sura /Suramericana</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>158</v>
       </c>
-      <c r="AK6" t="n">
-        <v>74.26000000000001</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>83.73999999999999</v>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="AM6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Penicilina</t>
+          <t>Ninguna</t>
         </is>
       </c>
       <c r="AP6" t="n">
-        <v>3625814.5</v>
+        <v>10516122</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1000028476</v>
+        <v>1000078783</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>Santa Marta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
@@ -1765,32 +1753,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1075961763</v>
+        <v>613099938</v>
       </c>
       <c r="B7" t="n">
-        <v>2168716</v>
+        <v>2164075</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alberto</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Velasco Clavijo</t>
+          <t>Moncada Alvarado</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alberto.VelascoX@outlook.com</t>
+          <t>SaraMoncadaL@gmail.com</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1800,11 +1788,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Alberto.Velasco@mail.escuelaing.edu.co</t>
+          <t>Sara.Moncada@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3195589763</v>
+        <v>3015468110</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1813,78 +1801,76 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>cra 5b Bis #10b-138</t>
+          <t>dg 7c #76c-78</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>AB+</t>
         </is>
       </c>
       <c r="N7" s="2" t="n">
-        <v>38018</v>
+        <v>36912</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Agustina Clavijo</t>
+          <t>Julia Alvarado</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3214102360</v>
+        <v>3133424476</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Ao905@outlook.com</t>
+          <t>JoA@outlook.com</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Ingieneria Sistemas</t>
+          <t>Ingieneria Electrica</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>ISIS</t>
+          <t>IELE</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>ISIS359</t>
+          <t>IELE347</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>ACTV</t>
+          <t>MATR</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Especialización</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Pregrado</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>6927708</v>
+        <v>5000000</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1899,12 +1885,12 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1914,40 +1900,36 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Sura /Suramericana</t>
+          <t>Emssanar</t>
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>158</v>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>163</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>141.81</v>
       </c>
       <c r="AM7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Anticonvulsivos</t>
+          <t>Yodo</t>
         </is>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2162334</v>
+        <v>2165649</v>
       </c>
       <c r="AR7" t="n">
         <v>1</v>
@@ -1956,11 +1938,11 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
@@ -1970,7 +1952,7 @@
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Casado</t>
+          <t>Soltero</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
@@ -1981,19 +1963,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1096816949</v>
+        <v>545241576</v>
       </c>
       <c r="B8" t="n">
-        <v>1000034221</v>
+        <v>1000032896</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kiara</t>
+          <t>María</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Salgado Grisales</t>
+          <t>Duarte Perea</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2002,11 +1984,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>KiaraSalgadoT@gmail.com</t>
+          <t>MaríaDuarte887@outlook.com</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2016,41 +1998,41 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Kiara.Salgado@mail.escuelaing.edu.co</t>
+          <t>María.Duarte@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3152868025</v>
+        <v>3199751431</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Cajica</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>cll 15e #16a-108</t>
+          <t>trans 58d Bis #130a-24</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>O+</t>
+          <t>O-</t>
         </is>
       </c>
       <c r="N8" s="2" t="n">
-        <v>36243</v>
+        <v>38499</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Félix Salgado</t>
+          <t>Rosmery Perea</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3007877903</v>
+        <v>3221925921</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>FoL@outlook.com</t>
+          <t>Ra478@outlook.com</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2065,83 +2047,89 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>IELE352</t>
+          <t>IELE354</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>MATR</t>
+          <t>PLNC</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Pregrado</t>
-        </is>
-      </c>
-      <c r="W8" t="n">
-        <v>1</v>
+          <t>Maestria</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="X8" t="n">
-        <v>12125683</v>
+        <v>8088809</v>
       </c>
       <c r="Y8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ICETEX</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>PAP</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Nueva EPS</t>
+          <t>Cafam</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>163</v>
       </c>
-      <c r="AK8" t="n">
-        <v>32.59999999999999</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>130.4</v>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="AM8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
@@ -2157,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1000034221</v>
+        <v>1000032896</v>
       </c>
       <c r="AR8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
@@ -2175,7 +2163,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>Medellin</t>
+          <t>Santa Marta</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
@@ -2185,25 +2173,25 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1032110193</v>
+        <v>883771284</v>
       </c>
       <c r="B9" t="n">
-        <v>2162780</v>
+        <v>2163037</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Alonso</t>
+          <t>Javier</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Berrio Alzate</t>
+          <t>Restrepo Tellez</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2212,11 +2200,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>AlonsoBerrio231@hotmail.com</t>
+          <t>JavierRestrepoQ@outlook.com</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2226,11 +2214,11 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alonso.Berrio@mail.escuelaing.edu.co</t>
+          <t>Javier.Restrepo@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3128925702</v>
+        <v>3055695155</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2239,7 +2227,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>cll 4Bis #6b Bis-117</t>
+          <t>trans 49c #152a Bis-4</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2248,67 +2236,69 @@
         </is>
       </c>
       <c r="N9" s="2" t="n">
-        <v>35887</v>
+        <v>37118</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Jesús Alzate</t>
+          <t>Carmen Tellez</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3118161450</v>
+        <v>3155470991</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Je59@outlook.com</t>
+          <t>CzV@hotmail.com</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Ingieneria Ambiental</t>
+          <t>Matematicas</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>IAMB</t>
+          <t>MATE</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>IAMB347</t>
+          <t>MATE357</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>MATR</t>
+          <t>PLNC</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Pregrado</t>
-        </is>
-      </c>
-      <c r="W9" t="n">
-        <v>4</v>
+          <t>Maestria</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="X9" t="n">
-        <v>11478689</v>
+        <v>5000000</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="AA9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB9" t="n">
         <v>4.8</v>
       </c>
-      <c r="AB9" t="n">
-        <v>4.4</v>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2318,7 +2308,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>ICETEX</t>
+          <t>Pilo paga</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2328,55 +2318,59 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>PAP</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Saludvida</t>
+          <t>Capital Salud</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>170</v>
       </c>
-      <c r="AK9" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>96.90000000000001</v>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Yodo</t>
+          <t>Ninguna</t>
         </is>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2162982</v>
+        <v>2168832</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
@@ -2401,46 +2395,46 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1019423687</v>
+        <v>453020056</v>
       </c>
       <c r="B10" t="n">
-        <v>1000044552</v>
+        <v>2163457</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Karla</t>
+          <t>Facundo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tellez Uribe</t>
+          <t>Galeano Fernandez</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>KarlaTellez88@yahoo.com</t>
+          <t>FacundoGaleanoI@outlook.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Profesor</t>
+          <t>Estudiante</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Karla.Tellez@escuelaing.edu.co</t>
+          <t>Facundo.Galeano@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>3007323357</v>
+        <v>3166231548</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -2449,94 +2443,86 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>trans 8d Bis #9b-152</t>
+          <t>cll 7b Bis #110b Bis-29</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>AB-</t>
         </is>
       </c>
       <c r="N10" s="2" t="n">
-        <v>35579</v>
+        <v>36963</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Mercedes Uribe</t>
+          <t>Felipe Galeano</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3226532275</v>
+        <v>3202542365</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>M.ev@gmail.com</t>
+          <t>Fo891@yahoo.com</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ingieneria Biomedica</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>IBIO</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>IBIO353</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ACTV</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Pregrado</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7553294</v>
       </c>
       <c r="Y10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AA10" t="n">
         <v>5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>2013</v>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="AB10" t="n">
+        <v>4.8</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pilo paga</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2546,75 +2532,59 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Famisanar</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Capital Salud</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
+        <v>154</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>98.56</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>15</v>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Sulfamidas</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Anticonvulsivos</t>
+        </is>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1000044552</v>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>2164656</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2025</v>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
@@ -2629,25 +2599,25 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>794423855</v>
+        <v>417146634</v>
       </c>
       <c r="B11" t="n">
-        <v>1000097376</v>
+        <v>2167398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Luisa</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Giraldo Cortes</t>
+          <t>Tamayo Vasquez</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2656,11 +2626,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>LuisaGiraldo550@hotmail.com</t>
+          <t>AnaTamayoy@outlook.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2670,99 +2640,101 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Luisa.Giraldo@mail.escuelaing.edu.co</t>
+          <t>Ana.Tamayo@mail.escuelaing.edu.co</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3124235576</v>
+        <v>3121567105</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sopo</t>
+          <t>Soacha</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>dg 18g #7b-128</t>
+          <t>trans 95  #131a-40</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>38372</v>
+        <v>37692</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Luis Giraldo</t>
+          <t>Ana Vasquez</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3508265864</v>
+        <v>3018129577</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Lo961@hotmail.com</t>
+          <t>A.zt@outlook.com</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Ingieneria Biomedica</t>
+          <t>Ingieneria Mecanica</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>IBIO</t>
+          <t>IMEC</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>IBIO348</t>
+          <t>IMEC347</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>PLNC</t>
+          <t>ACTV</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Pregrado</t>
-        </is>
-      </c>
-      <c r="W11" t="n">
-        <v>4</v>
+          <t>Especialización</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="X11" t="n">
-        <v>12222813</v>
+        <v>10576821</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
         <v>2020</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Fondo solidario</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2772,7 +2744,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2782,20 +2754,24 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Cafesalud</t>
+          <t>Famisanar</t>
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>154</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>107.8</v>
+        <v>170</v>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="AM11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
@@ -2804,17 +2780,17 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Antibióticos conexos</t>
+          <t>Ninguna</t>
         </is>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1000097376</v>
+        <v>2162385</v>
       </c>
       <c r="AR11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2829,12 +2805,12 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Casado</t>
+          <t>Soltero</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
